--- a/src/test/resources/data/DataSet.xlsx
+++ b/src/test/resources/data/DataSet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matias.mercado\Desktop\Pruebas Intelij\TestSauseDemo\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A980C0-C961-4F47-958B-4CDF02873C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8719D0B4-8738-4E33-8081-ADBD0836EEEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>Casos de Pruebas</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>Datos01</t>
   </si>
@@ -85,6 +82,12 @@
   </si>
   <si>
     <t>Mercado</t>
+  </si>
+  <si>
+    <t>CasosdePruebas</t>
+  </si>
+  <si>
+    <t>locked_out_user</t>
   </si>
 </sst>
 </file>
@@ -418,7 +421,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
@@ -429,54 +434,54 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="F2" s="1">
         <v>5300</v>
@@ -484,22 +489,61 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5300</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>13</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>14</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
